--- a/last_predictions_3hlayer.xlsx
+++ b/last_predictions_3hlayer.xlsx
@@ -399,7 +399,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>71.92836761474609</v>
+        <v>72.44926452636719</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -410,7 +410,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>181.6551818847656</v>
+        <v>180.0577545166016</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -421,7 +421,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>129.0687713623047</v>
+        <v>121.7747116088867</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -432,7 +432,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>39.81133651733398</v>
+        <v>37.84516143798828</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -443,7 +443,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>12.34591674804688</v>
+        <v>16.25225639343262</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -454,7 +454,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>8.674914360046387</v>
+        <v>13.2372932434082</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -465,7 +465,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>6.3987135887146</v>
+        <v>17.38755989074707</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -476,7 +476,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>26.68925666809082</v>
+        <v>32.64756393432617</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -487,7 +487,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>99.99365997314453</v>
+        <v>90.34137725830078</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -498,7 +498,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>218.076904296875</v>
+        <v>139.6136932373047</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -509,7 +509,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>99.73771667480469</v>
+        <v>66.93205261230469</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -520,7 +520,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>24.68636512756348</v>
+        <v>22.57066345214844</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -531,7 +531,7 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>11.09593391418457</v>
+        <v>13.33227348327637</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -542,7 +542,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>10.50248336791992</v>
+        <v>15.24962615966797</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -553,7 +553,7 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>13.50174808502197</v>
+        <v>28.31535339355469</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -564,7 +564,7 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>34.70528030395508</v>
+        <v>61.92763137817383</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -575,7 +575,7 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>121.6330108642578</v>
+        <v>113.8759841918945</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -586,7 +586,7 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>225.15185546875</v>
+        <v>77.08506774902344</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -597,7 +597,7 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>76.69182586669922</v>
+        <v>36.45169067382812</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -608,7 +608,7 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>17.02920722961426</v>
+        <v>23.05905532836914</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -619,7 +619,7 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>9.440493583679199</v>
+        <v>19.89080619812012</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -630,7 +630,7 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>7.024684906005859</v>
+        <v>33.86481857299805</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -641,7 +641,7 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>17.7531909942627</v>
+        <v>69.91464996337891</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -652,7 +652,7 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>53.81885147094727</v>
+        <v>116.5624313354492</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -663,7 +663,7 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>198.2322235107422</v>
+        <v>91.73889923095703</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -674,7 +674,7 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>247.6722717285156</v>
+        <v>42.60548400878906</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -685,7 +685,7 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>72.44664764404297</v>
+        <v>25.61328887939453</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -696,7 +696,7 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>20.22549247741699</v>
+        <v>26.48396110534668</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -707,7 +707,7 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>9.239581108093262</v>
+        <v>38.65092468261719</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -718,7 +718,7 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>4.939783573150635</v>
+        <v>70.02791595458984</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -729,7 +729,7 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>17.5274829864502</v>
+        <v>108.7448348999023</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -740,7 +740,7 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>67.01938629150391</v>
+        <v>92.27141571044922</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -751,7 +751,7 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>271.4624633789062</v>
+        <v>46.70959091186523</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -762,7 +762,7 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>369.9225158691406</v>
+        <v>26.11845397949219</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -773,7 +773,7 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>96.14125823974609</v>
+        <v>24.41765403747559</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -784,7 +784,7 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>29.43558502197266</v>
+        <v>35.98159790039062</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -795,7 +795,7 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>12.65184497833252</v>
+        <v>69.67458343505859</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -806,7 +806,7 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>9.189979553222656</v>
+        <v>115.8239517211914</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -817,7 +817,7 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>22.95433616638184</v>
+        <v>98.66626739501953</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -828,7 +828,7 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>65.30792999267578</v>
+        <v>49.67593002319336</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -839,7 +839,7 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>288.1621398925781</v>
+        <v>30.3542423248291</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -850,7 +850,7 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>505.1443786621094</v>
+        <v>29.6086483001709</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -861,7 +861,7 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>133.5517272949219</v>
+        <v>38.18948745727539</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -872,7 +872,7 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>37.86400604248047</v>
+        <v>66.18819427490234</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -883,7 +883,7 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>16.98526191711426</v>
+        <v>108.7140045166016</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -894,7 +894,7 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>13.48312664031982</v>
+        <v>99.96614837646484</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -905,7 +905,7 @@
         <v>46</v>
       </c>
       <c r="C48">
-        <v>25.75661659240723</v>
+        <v>55.13914108276367</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -916,7 +916,7 @@
         <v>47</v>
       </c>
       <c r="C49">
-        <v>71.96389007568359</v>
+        <v>33.41853713989258</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -927,7 +927,7 @@
         <v>48</v>
       </c>
       <c r="C50">
-        <v>290.3316955566406</v>
+        <v>29.98615455627441</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -938,7 +938,7 @@
         <v>49</v>
       </c>
       <c r="C51">
-        <v>571.1087036132812</v>
+        <v>39.29381942749023</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -949,7 +949,7 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>176.6343231201172</v>
+        <v>66.83805847167969</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -960,7 +960,7 @@
         <v>51</v>
       </c>
       <c r="C53">
-        <v>41.30219268798828</v>
+        <v>110.0486297607422</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -971,7 +971,7 @@
         <v>52</v>
       </c>
       <c r="C54">
-        <v>21.10007286071777</v>
+        <v>102.4283218383789</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -982,7 +982,7 @@
         <v>53</v>
       </c>
       <c r="C55">
-        <v>14.77780151367188</v>
+        <v>57.81891250610352</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -993,7 +993,7 @@
         <v>54</v>
       </c>
       <c r="C56">
-        <v>22.01700782775879</v>
+        <v>38.3359375</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1004,7 +1004,7 @@
         <v>55</v>
       </c>
       <c r="C57">
-        <v>70.97991180419922</v>
+        <v>35.29103469848633</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1015,7 +1015,7 @@
         <v>56</v>
       </c>
       <c r="C58">
-        <v>259.0375061035156</v>
+        <v>42.52236557006836</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1026,7 +1026,7 @@
         <v>57</v>
       </c>
       <c r="C59">
-        <v>570.77783203125</v>
+        <v>68.65338897705078</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1037,7 +1037,7 @@
         <v>58</v>
       </c>
       <c r="C60">
-        <v>210.3714752197266</v>
+        <v>107.1457901000977</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1048,7 +1048,7 @@
         <v>59</v>
       </c>
       <c r="C61">
-        <v>39.90401077270508</v>
+        <v>102.9799880981445</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1059,7 +1059,7 @@
         <v>60</v>
       </c>
       <c r="C62">
-        <v>23.51948738098145</v>
+        <v>62.48945999145508</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1070,7 +1070,7 @@
         <v>61</v>
       </c>
       <c r="C63">
-        <v>15.10676383972168</v>
+        <v>41.88785934448242</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1081,7 +1081,7 @@
         <v>62</v>
       </c>
       <c r="C64">
-        <v>12.32614994049072</v>
+        <v>37.65022659301758</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1092,7 +1092,7 @@
         <v>63</v>
       </c>
       <c r="C65">
-        <v>43.38729858398438</v>
+        <v>46.14177322387695</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1103,7 +1103,7 @@
         <v>64</v>
       </c>
       <c r="C66">
-        <v>190.3532867431641</v>
+        <v>72.26847839355469</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1114,7 +1114,7 @@
         <v>65</v>
       </c>
       <c r="C67">
-        <v>501.105712890625</v>
+        <v>107.2397232055664</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1125,7 +1125,7 @@
         <v>66</v>
       </c>
       <c r="C68">
-        <v>254.5707244873047</v>
+        <v>102.8035430908203</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1136,7 +1136,7 @@
         <v>67</v>
       </c>
       <c r="C69">
-        <v>53.01504516601562</v>
+        <v>64.79190063476562</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1147,7 +1147,7 @@
         <v>68</v>
       </c>
       <c r="C70">
-        <v>25.13449096679688</v>
+        <v>46.33440780639648</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1158,7 +1158,7 @@
         <v>69</v>
       </c>
       <c r="C71">
-        <v>31.48713111877441</v>
+        <v>42.55091857910156</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1169,7 +1169,7 @@
         <v>70</v>
       </c>
       <c r="C72">
-        <v>8.605401039123535</v>
+        <v>50.49316787719727</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1180,7 +1180,7 @@
         <v>71</v>
       </c>
       <c r="C73">
-        <v>26.13590431213379</v>
+        <v>76.55509948730469</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1191,7 +1191,7 @@
         <v>72</v>
       </c>
       <c r="C74">
-        <v>109.3542327880859</v>
+        <v>106.4182891845703</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1202,7 +1202,7 @@
         <v>73</v>
       </c>
       <c r="C75">
-        <v>299.0702819824219</v>
+        <v>102.5270385742188</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1213,7 +1213,7 @@
         <v>74</v>
       </c>
       <c r="C76">
-        <v>218.8540802001953</v>
+        <v>68.06403350830078</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1224,7 +1224,7 @@
         <v>75</v>
       </c>
       <c r="C77">
-        <v>66.51841735839844</v>
+        <v>50.08418655395508</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1235,7 +1235,7 @@
         <v>76</v>
       </c>
       <c r="C78">
-        <v>21.2594051361084</v>
+        <v>46.69758224487305</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1246,7 +1246,7 @@
         <v>77</v>
       </c>
       <c r="C79">
-        <v>37.22867584228516</v>
+        <v>56.17034530639648</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1257,7 +1257,7 @@
         <v>78</v>
       </c>
       <c r="C80">
-        <v>9.177060127258301</v>
+        <v>82.78958892822266</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1268,7 +1268,7 @@
         <v>79</v>
       </c>
       <c r="C81">
-        <v>33.9509162902832</v>
+        <v>108.4250564575195</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1279,7 +1279,7 @@
         <v>80</v>
       </c>
       <c r="C82">
-        <v>50.65870666503906</v>
+        <v>102.369743347168</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1290,7 +1290,7 @@
         <v>81</v>
       </c>
       <c r="C83">
-        <v>147.3901977539062</v>
+        <v>70.50347900390625</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1301,7 +1301,7 @@
         <v>82</v>
       </c>
       <c r="C84">
-        <v>119.6082611083984</v>
+        <v>54.24306106567383</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1312,7 +1312,7 @@
         <v>83</v>
       </c>
       <c r="C85">
-        <v>52.09851837158203</v>
+        <v>51.70468521118164</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1323,7 +1323,7 @@
         <v>84</v>
       </c>
       <c r="C86">
-        <v>28.6551456451416</v>
+        <v>62.09638595581055</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1334,7 +1334,7 @@
         <v>85</v>
       </c>
       <c r="C87">
-        <v>41.33759307861328</v>
+        <v>89.92745208740234</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1345,7 +1345,7 @@
         <v>86</v>
       </c>
       <c r="C88">
-        <v>38.81914138793945</v>
+        <v>111.9324417114258</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1356,7 +1356,7 @@
         <v>87</v>
       </c>
       <c r="C89">
-        <v>58.43772888183594</v>
+        <v>103.2621536254883</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1367,7 +1367,7 @@
         <v>88</v>
       </c>
       <c r="C90">
-        <v>85.02667236328125</v>
+        <v>73.1793212890625</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1378,7 +1378,7 @@
         <v>89</v>
       </c>
       <c r="C91">
-        <v>89.71092987060547</v>
+        <v>57.57878494262695</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1389,7 +1389,7 @@
         <v>90</v>
       </c>
       <c r="C92">
-        <v>58.12583160400391</v>
+        <v>55.35265731811523</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1400,7 +1400,7 @@
         <v>91</v>
       </c>
       <c r="C93">
-        <v>33.82045364379883</v>
+        <v>67.19908905029297</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1411,7 +1411,7 @@
         <v>92</v>
       </c>
       <c r="C94">
-        <v>30.86574363708496</v>
+        <v>96.35614776611328</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1422,7 +1422,7 @@
         <v>93</v>
       </c>
       <c r="C95">
-        <v>52.55377197265625</v>
+        <v>115.7222595214844</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1433,7 +1433,7 @@
         <v>94</v>
       </c>
       <c r="C96">
-        <v>87.23122406005859</v>
+        <v>104.2056884765625</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1444,7 +1444,7 @@
         <v>95</v>
       </c>
       <c r="C97">
-        <v>102.2361145019531</v>
+        <v>75.24977874755859</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1455,7 +1455,7 @@
         <v>96</v>
       </c>
       <c r="C98">
-        <v>78.22515869140625</v>
+        <v>60.93056106567383</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1466,7 +1466,7 @@
         <v>97</v>
       </c>
       <c r="C99">
-        <v>50.30510711669922</v>
+        <v>58.13800811767578</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1477,7 +1477,7 @@
         <v>98</v>
       </c>
       <c r="C100">
-        <v>32.96797561645508</v>
+        <v>70.29374694824219</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1488,7 +1488,7 @@
         <v>99</v>
       </c>
       <c r="C101">
-        <v>34.09872436523438</v>
+        <v>100.3155364990234</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1499,7 +1499,7 @@
         <v>100</v>
       </c>
       <c r="C102">
-        <v>54.4492301940918</v>
+        <v>119.3992691040039</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1510,7 +1510,7 @@
         <v>101</v>
       </c>
       <c r="C103">
-        <v>93.56427764892578</v>
+        <v>106.4768371582031</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1521,7 +1521,7 @@
         <v>102</v>
       </c>
       <c r="C104">
-        <v>108.0580444335938</v>
+        <v>77.36252593994141</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1532,7 +1532,7 @@
         <v>103</v>
       </c>
       <c r="C105">
-        <v>74.73915863037109</v>
+        <v>63.85659408569336</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1543,7 +1543,7 @@
         <v>104</v>
       </c>
       <c r="C106">
-        <v>44.38840866088867</v>
+        <v>61.94568252563477</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1554,7 +1554,7 @@
         <v>105</v>
       </c>
       <c r="C107">
-        <v>32.91062927246094</v>
+        <v>75.13082122802734</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1565,7 +1565,7 @@
         <v>106</v>
       </c>
       <c r="C108">
-        <v>38.2451171875</v>
+        <v>105.7200393676758</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1576,7 +1576,7 @@
         <v>107</v>
       </c>
       <c r="C109">
-        <v>56.14521026611328</v>
+        <v>122.9576416015625</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1587,7 +1587,7 @@
         <v>108</v>
       </c>
       <c r="C110">
-        <v>95.18390655517578</v>
+        <v>108.6207962036133</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1598,7 +1598,7 @@
         <v>109</v>
       </c>
       <c r="C111">
-        <v>108.8965377807617</v>
+        <v>80.53170013427734</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1609,7 +1609,7 @@
         <v>110</v>
       </c>
       <c r="C112">
-        <v>74.02486419677734</v>
+        <v>67.86582946777344</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1620,7 +1620,7 @@
         <v>111</v>
       </c>
       <c r="C113">
-        <v>42.68656158447266</v>
+        <v>67.13919830322266</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1631,7 +1631,7 @@
         <v>112</v>
       </c>
       <c r="C114">
-        <v>31.06289863586426</v>
+        <v>82.39321136474609</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1642,7 +1642,7 @@
         <v>113</v>
       </c>
       <c r="C115">
-        <v>41.57966613769531</v>
+        <v>115.1204986572266</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1653,7 +1653,7 @@
         <v>114</v>
       </c>
       <c r="C116">
-        <v>69.79228973388672</v>
+        <v>129.3532867431641</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1664,7 +1664,7 @@
         <v>115</v>
       </c>
       <c r="C117">
-        <v>103.771858215332</v>
+        <v>111.557258605957</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1675,7 +1675,7 @@
         <v>116</v>
       </c>
       <c r="C118">
-        <v>102.093879699707</v>
+        <v>83.97867584228516</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1686,7 +1686,7 @@
         <v>117</v>
       </c>
       <c r="C119">
-        <v>70.06978607177734</v>
+        <v>71.77127838134766</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1697,7 +1697,7 @@
         <v>118</v>
       </c>
       <c r="C120">
-        <v>41.59696197509766</v>
+        <v>72.55974578857422</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1708,7 +1708,7 @@
         <v>119</v>
       </c>
       <c r="C121">
-        <v>31.94647216796875</v>
+        <v>90.23355102539062</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1719,7 +1719,7 @@
         <v>120</v>
       </c>
       <c r="C122">
-        <v>47.2712516784668</v>
+        <v>125.9117813110352</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1730,7 +1730,7 @@
         <v>121</v>
       </c>
       <c r="C123">
-        <v>81.83411407470703</v>
+        <v>136.8389892578125</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1741,7 +1741,7 @@
         <v>122</v>
       </c>
       <c r="C124">
-        <v>111.3749389648438</v>
+        <v>114.4787673950195</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1752,7 +1752,7 @@
         <v>123</v>
       </c>
       <c r="C125">
-        <v>96.57679748535156</v>
+        <v>87.14205169677734</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1763,7 +1763,7 @@
         <v>124</v>
       </c>
       <c r="C126">
-        <v>66.43877410888672</v>
+        <v>74.98500823974609</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1774,7 +1774,7 @@
         <v>125</v>
       </c>
       <c r="C127">
-        <v>40.53524780273438</v>
+        <v>77.04271697998047</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1785,7 +1785,7 @@
         <v>126</v>
       </c>
       <c r="C128">
-        <v>32.85021591186523</v>
+        <v>97.17916107177734</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1796,7 +1796,7 @@
         <v>127</v>
       </c>
       <c r="C129">
-        <v>48.67386245727539</v>
+        <v>133.6876373291016</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1807,7 +1807,7 @@
         <v>128</v>
       </c>
       <c r="C130">
-        <v>90.50523376464844</v>
+        <v>143.0653228759766</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1818,7 +1818,7 @@
         <v>129</v>
       </c>
       <c r="C131">
-        <v>120.6706771850586</v>
+        <v>117.6526565551758</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1829,7 +1829,7 @@
         <v>130</v>
       </c>
       <c r="C132">
-        <v>93.63814544677734</v>
+        <v>90.29673767089844</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1840,7 +1840,7 @@
         <v>131</v>
       </c>
       <c r="C133">
-        <v>58.91178512573242</v>
+        <v>78.7705078125</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1851,7 +1851,7 @@
         <v>132</v>
       </c>
       <c r="C134">
-        <v>37.96974182128906</v>
+        <v>82.54402923583984</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1862,7 +1862,7 @@
         <v>133</v>
       </c>
       <c r="C135">
-        <v>35.83477401733398</v>
+        <v>105.0641403198242</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1873,7 +1873,7 @@
         <v>134</v>
       </c>
       <c r="C136">
-        <v>53.84116363525391</v>
+        <v>141.7783660888672</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1884,7 +1884,7 @@
         <v>135</v>
       </c>
       <c r="C137">
-        <v>97.82016754150391</v>
+        <v>149.2194366455078</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1895,7 +1895,7 @@
         <v>136</v>
       </c>
       <c r="C138">
-        <v>123.6823348999023</v>
+        <v>121.2257308959961</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1906,7 +1906,7 @@
         <v>137</v>
       </c>
       <c r="C139">
-        <v>87.70633697509766</v>
+        <v>94.52275085449219</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1917,7 +1917,7 @@
         <v>138</v>
       </c>
       <c r="C140">
-        <v>53.17246246337891</v>
+        <v>84.12854766845703</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1928,7 +1928,7 @@
         <v>139</v>
       </c>
       <c r="C141">
-        <v>36.64072418212891</v>
+        <v>89.95444488525391</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1939,7 +1939,7 @@
         <v>140</v>
       </c>
       <c r="C142">
-        <v>39.12858581542969</v>
+        <v>115.6325302124023</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1950,7 +1950,7 @@
         <v>141</v>
       </c>
       <c r="C143">
-        <v>58.59101486206055</v>
+        <v>150.5804443359375</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1961,7 +1961,7 @@
         <v>142</v>
       </c>
       <c r="C144">
-        <v>103.6858749389648</v>
+        <v>154.8553924560547</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1972,7 +1972,7 @@
         <v>143</v>
       </c>
       <c r="C145">
-        <v>124.801643371582</v>
+        <v>125.3143615722656</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1983,7 +1983,7 @@
         <v>144</v>
       </c>
       <c r="C146">
-        <v>85.91365814208984</v>
+        <v>100.0630722045898</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1994,7 +1994,7 @@
         <v>145</v>
       </c>
       <c r="C147">
-        <v>49.46725463867188</v>
+        <v>91.78626251220703</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2005,7 +2005,7 @@
         <v>146</v>
       </c>
       <c r="C148">
-        <v>35.00970458984375</v>
+        <v>100.9035415649414</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2016,7 +2016,7 @@
         <v>147</v>
       </c>
       <c r="C149">
-        <v>41.28876876831055</v>
+        <v>130.7525634765625</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2027,7 +2027,7 @@
         <v>148</v>
       </c>
       <c r="C150">
-        <v>65.82565307617188</v>
+        <v>161.5493621826172</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2038,7 +2038,7 @@
         <v>149</v>
       </c>
       <c r="C151">
-        <v>111.4400253295898</v>
+        <v>160.5995025634766</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2049,7 +2049,7 @@
         <v>150</v>
       </c>
       <c r="C152">
-        <v>124.0500869750977</v>
+        <v>130.0408630371094</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2060,7 +2060,7 @@
         <v>151</v>
       </c>
       <c r="C153">
-        <v>83.14687347412109</v>
+        <v>108.0814361572266</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2071,7 +2071,7 @@
         <v>152</v>
       </c>
       <c r="C154">
-        <v>47.66408157348633</v>
+        <v>102.2063140869141</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2082,7 +2082,7 @@
         <v>153</v>
       </c>
       <c r="C155">
-        <v>34.63126754760742</v>
+        <v>115.554801940918</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2093,7 +2093,7 @@
         <v>154</v>
       </c>
       <c r="C156">
-        <v>44.96652984619141</v>
+        <v>151.0543518066406</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2104,7 +2104,7 @@
         <v>155</v>
       </c>
       <c r="C157">
-        <v>75.07060241699219</v>
+        <v>175.9818725585938</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2115,7 +2115,7 @@
         <v>156</v>
       </c>
       <c r="C158">
-        <v>118.8418807983398</v>
+        <v>167.2915496826172</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2126,7 +2126,7 @@
         <v>157</v>
       </c>
       <c r="C159">
-        <v>121.5358200073242</v>
+        <v>135.2693023681641</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2137,7 +2137,7 @@
         <v>158</v>
       </c>
       <c r="C160">
-        <v>80.78462219238281</v>
+        <v>118.4857482910156</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2148,7 +2148,7 @@
         <v>159</v>
       </c>
       <c r="C161">
-        <v>46.65039825439453</v>
+        <v>118.5530471801758</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2159,7 +2159,7 @@
         <v>160</v>
       </c>
       <c r="C162">
-        <v>34.91741180419922</v>
+        <v>139.2193298339844</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2170,7 +2170,7 @@
         <v>161</v>
       </c>
       <c r="C163">
-        <v>48.29019546508789</v>
+        <v>177.0422821044922</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2181,7 +2181,7 @@
         <v>162</v>
       </c>
       <c r="C164">
-        <v>84.73569488525391</v>
+        <v>191.4904022216797</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2192,7 +2192,7 @@
         <v>163</v>
       </c>
       <c r="C165">
-        <v>127.1485824584961</v>
+        <v>174.4512481689453</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2203,7 +2203,7 @@
         <v>164</v>
       </c>
       <c r="C166">
-        <v>118.9367752075195</v>
+        <v>144.4447174072266</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2214,7 +2214,7 @@
         <v>165</v>
       </c>
       <c r="C167">
-        <v>78.19103240966797</v>
+        <v>134.8780822753906</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2225,7 +2225,7 @@
         <v>166</v>
       </c>
       <c r="C168">
-        <v>45.58600997924805</v>
+        <v>144.0814666748047</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2236,7 +2236,7 @@
         <v>167</v>
       </c>
       <c r="C169">
-        <v>35.53734970092773</v>
+        <v>176.6115264892578</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2247,7 +2247,7 @@
         <v>168</v>
       </c>
       <c r="C170">
-        <v>50.89692687988281</v>
+        <v>203.5403900146484</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2258,7 +2258,7 @@
         <v>169</v>
       </c>
       <c r="C171">
-        <v>93.09144592285156</v>
+        <v>203.9424743652344</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2269,7 +2269,7 @@
         <v>170</v>
       </c>
       <c r="C172">
-        <v>135.1074676513672</v>
+        <v>183.2945709228516</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2280,7 +2280,7 @@
         <v>171</v>
       </c>
       <c r="C173">
-        <v>117.0002365112305</v>
+        <v>162.1428680419922</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2291,7 +2291,7 @@
         <v>172</v>
       </c>
       <c r="C174">
-        <v>75.06021881103516</v>
+        <v>161.4267730712891</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2302,7 +2302,7 @@
         <v>173</v>
       </c>
       <c r="C175">
-        <v>44.49978637695312</v>
+        <v>183.8692779541016</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2313,7 +2313,7 @@
         <v>174</v>
       </c>
       <c r="C176">
-        <v>36.228515625</v>
+        <v>213.2490844726562</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2324,7 +2324,7 @@
         <v>175</v>
       </c>
       <c r="C177">
-        <v>52.50513458251953</v>
+        <v>227.3411407470703</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2335,7 +2335,7 @@
         <v>176</v>
       </c>
       <c r="C178">
-        <v>99.07282257080078</v>
+        <v>219.7437896728516</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2346,7 +2346,7 @@
         <v>177</v>
       </c>
       <c r="C179">
-        <v>141.9153747558594</v>
+        <v>200.5043487548828</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2357,7 +2357,7 @@
         <v>178</v>
       </c>
       <c r="C180">
-        <v>116.236946105957</v>
+        <v>189.544677734375</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2368,7 +2368,7 @@
         <v>179</v>
       </c>
       <c r="C181">
-        <v>71.10841369628906</v>
+        <v>200.7989654541016</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2379,7 +2379,7 @@
         <v>180</v>
       </c>
       <c r="C182">
-        <v>43.17404174804688</v>
+        <v>225.9990234375</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2390,7 +2390,7 @@
         <v>181</v>
       </c>
       <c r="C183">
-        <v>36.63518905639648</v>
+        <v>247.4006042480469</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2401,7 +2401,7 @@
         <v>182</v>
       </c>
       <c r="C184">
-        <v>53.60693359375</v>
+        <v>252.0785980224609</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2412,7 +2412,7 @@
         <v>183</v>
       </c>
       <c r="C185">
-        <v>103.9696807861328</v>
+        <v>240.5500640869141</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2423,7 +2423,7 @@
         <v>184</v>
       </c>
       <c r="C186">
-        <v>147.3972320556641</v>
+        <v>226.4314422607422</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2434,7 +2434,7 @@
         <v>185</v>
       </c>
       <c r="C187">
-        <v>115.3391952514648</v>
+        <v>226.1552124023438</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2445,7 +2445,7 @@
         <v>186</v>
       </c>
       <c r="C188">
-        <v>67.48312377929688</v>
+        <v>242.9902801513672</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2456,7 +2456,7 @@
         <v>187</v>
       </c>
       <c r="C189">
-        <v>41.90959930419922</v>
+        <v>266.7535095214844</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2467,7 +2467,7 @@
         <v>188</v>
       </c>
       <c r="C190">
-        <v>37.63074493408203</v>
+        <v>281.7860717773438</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2478,7 +2478,7 @@
         <v>189</v>
       </c>
       <c r="C191">
-        <v>54.86967468261719</v>
+        <v>279.6876831054688</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2489,7 +2489,7 @@
         <v>190</v>
       </c>
       <c r="C192">
-        <v>108.8704681396484</v>
+        <v>267.40087890625</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2500,7 +2500,7 @@
         <v>191</v>
       </c>
       <c r="C193">
-        <v>151.9161071777344</v>
+        <v>260.50048828125</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2511,7 +2511,7 @@
         <v>192</v>
       </c>
       <c r="C194">
-        <v>113.722282409668</v>
+        <v>269.1564025878906</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2522,7 +2522,7 @@
         <v>193</v>
       </c>
       <c r="C195">
-        <v>63.88929748535156</v>
+        <v>290.1633911132812</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2533,7 +2533,7 @@
         <v>194</v>
       </c>
       <c r="C196">
-        <v>40.70986938476562</v>
+        <v>310.0154724121094</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2544,7 +2544,7 @@
         <v>195</v>
       </c>
       <c r="C197">
-        <v>38.9002571105957</v>
+        <v>316.8477783203125</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2555,7 +2555,7 @@
         <v>196</v>
       </c>
       <c r="C198">
-        <v>56.57271957397461</v>
+        <v>310.9211120605469</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2566,7 +2566,7 @@
         <v>197</v>
       </c>
       <c r="C199">
-        <v>115.2247619628906</v>
+        <v>303.1871337890625</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2577,7 +2577,7 @@
         <v>198</v>
       </c>
       <c r="C200">
-        <v>156.4901885986328</v>
+        <v>304.9046325683594</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2588,7 +2588,7 @@
         <v>199</v>
       </c>
       <c r="C201">
-        <v>110.462043762207</v>
+        <v>319.2162780761719</v>
       </c>
     </row>
   </sheetData>
